--- a/hw3/OpenMP/results.xlsx
+++ b/hw3/OpenMP/results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Matrix Add 100x100 Run #1</t>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t>Matrix Add 100x100 Run #4</t>
-  </si>
-  <si>
-    <t>Matrix Add 10000x10000 Run #1</t>
-  </si>
-  <si>
-    <t>Matrix Add 10000x10000 Run #2</t>
   </si>
   <si>
     <t>Pi Run #1</t>
@@ -56,13 +50,16 @@
     <t>Pi Run #4</t>
   </si>
   <si>
-    <t>Matrix Add 10000x10000 Run #3</t>
+    <t>Matrix Add 1000x1000 Run #1</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Matrix Add 1000x1000 Run #2</t>
   </si>
   <si>
-    <t>Matrix Add 10000x10000 Run #4</t>
+    <t>Matrix Add 1000x1000 Run #3</t>
+  </si>
+  <si>
+    <t>Matrix Add 1000x1000 Run #4</t>
   </si>
 </sst>
 </file>
@@ -132,6 +129,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Monti Carlo Multithreading</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -611,11 +633,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="500304496"/>
-        <c:axId val="500305280"/>
+        <c:axId val="190007424"/>
+        <c:axId val="190010168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="500304496"/>
+        <c:axId val="190007424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500305280"/>
+        <c:crossAx val="190010168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -666,7 +688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="500305280"/>
+        <c:axId val="190010168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +739,655 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500304496"/>
+        <c:crossAx val="190007424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1000 x 1000 Matrix Multiply</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Matrix Add 1000x1000 Run #1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$19:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$19:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6478</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6783</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6881</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Matrix Add 1000x1000 Run #2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$19:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$19:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6516</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Matrix Add 1000x1000 Run #3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$19:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$19:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12259</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4479</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Matrix Add 1000x1000 Run #4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$19:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$19:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>21785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6566</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6693</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6607</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="438076312"/>
+        <c:axId val="438076704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="438076312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438076704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="438076704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438076312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -838,6 +1508,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1354,20 +2064,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>157161</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1381,6 +2607,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1654,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,21 +2949,117 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -1737,22 +3089,118 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>20551</v>
+      </c>
+      <c r="C8">
+        <v>11985</v>
+      </c>
+      <c r="D8">
+        <v>6937</v>
+      </c>
+      <c r="E8">
+        <v>6567</v>
+      </c>
+      <c r="F8">
+        <v>6478</v>
+      </c>
+      <c r="G8">
+        <v>6783</v>
+      </c>
+      <c r="H8">
+        <v>6881</v>
+      </c>
+      <c r="I8">
+        <v>4360</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>22126</v>
+      </c>
+      <c r="C9">
+        <v>12275</v>
+      </c>
+      <c r="D9">
+        <v>6874</v>
+      </c>
+      <c r="E9">
+        <v>7293</v>
+      </c>
+      <c r="F9">
+        <v>6496</v>
+      </c>
+      <c r="G9">
+        <v>6516</v>
+      </c>
+      <c r="H9">
+        <v>4626</v>
+      </c>
+      <c r="I9">
+        <v>4425</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10">
+        <v>20801</v>
+      </c>
+      <c r="C10">
+        <v>12259</v>
+      </c>
+      <c r="D10">
+        <v>6739</v>
+      </c>
+      <c r="E10">
+        <v>6927</v>
+      </c>
+      <c r="F10">
+        <v>6461</v>
+      </c>
+      <c r="G10">
+        <v>6531</v>
+      </c>
+      <c r="H10">
+        <v>4479</v>
+      </c>
+      <c r="I10">
+        <v>4414</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>21785</v>
+      </c>
+      <c r="C11">
+        <v>12609</v>
+      </c>
+      <c r="D11">
+        <v>6968</v>
+      </c>
+      <c r="E11">
+        <v>6566</v>
+      </c>
+      <c r="F11">
+        <v>6693</v>
+      </c>
+      <c r="G11">
+        <v>6607</v>
+      </c>
+      <c r="H11">
+        <v>4468</v>
+      </c>
+      <c r="I11">
+        <v>4375</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1783,7 +3231,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>35514</v>
@@ -1812,7 +3260,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>33614</v>
@@ -1841,7 +3289,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>32754</v>
@@ -1870,7 +3318,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>32804</v>
@@ -1899,16 +3347,28 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
+      <c r="H18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
+      <c r="I18" t="s">
         <v>9</v>
+      </c>
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1927,6 +3387,21 @@
       <c r="E19">
         <v>32804</v>
       </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>20551</v>
+      </c>
+      <c r="I19">
+        <v>22126</v>
+      </c>
+      <c r="J19">
+        <v>20801</v>
+      </c>
+      <c r="K19">
+        <v>21785</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1944,8 +3419,20 @@
       <c r="E20">
         <v>20460</v>
       </c>
-      <c r="K20" t="s">
-        <v>11</v>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>11985</v>
+      </c>
+      <c r="I20">
+        <v>12275</v>
+      </c>
+      <c r="J20">
+        <v>12259</v>
+      </c>
+      <c r="K20">
+        <v>12609</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1964,6 +3451,21 @@
       <c r="E21">
         <v>8062</v>
       </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>6937</v>
+      </c>
+      <c r="I21">
+        <v>6874</v>
+      </c>
+      <c r="J21">
+        <v>6739</v>
+      </c>
+      <c r="K21">
+        <v>6968</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1981,6 +3483,21 @@
       <c r="E22">
         <v>6198</v>
       </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>6567</v>
+      </c>
+      <c r="I22">
+        <v>7293</v>
+      </c>
+      <c r="J22">
+        <v>6927</v>
+      </c>
+      <c r="K22">
+        <v>6566</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1998,6 +3515,21 @@
       <c r="E23">
         <v>6214</v>
       </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>6478</v>
+      </c>
+      <c r="I23">
+        <v>6496</v>
+      </c>
+      <c r="J23">
+        <v>6461</v>
+      </c>
+      <c r="K23">
+        <v>6693</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2015,6 +3547,21 @@
       <c r="E24">
         <v>6150</v>
       </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>6783</v>
+      </c>
+      <c r="I24">
+        <v>6516</v>
+      </c>
+      <c r="J24">
+        <v>6531</v>
+      </c>
+      <c r="K24">
+        <v>6607</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2032,6 +3579,21 @@
       <c r="E25">
         <v>6210</v>
       </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>6881</v>
+      </c>
+      <c r="I25">
+        <v>4626</v>
+      </c>
+      <c r="J25">
+        <v>4479</v>
+      </c>
+      <c r="K25">
+        <v>4468</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2048,6 +3610,21 @@
       </c>
       <c r="E26">
         <v>6141</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>4360</v>
+      </c>
+      <c r="I26">
+        <v>4425</v>
+      </c>
+      <c r="J26">
+        <v>4414</v>
+      </c>
+      <c r="K26">
+        <v>4375</v>
       </c>
     </row>
   </sheetData>

--- a/hw3/OpenMP/results.xlsx
+++ b/hw3/OpenMP/results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>Matrix Add 100x100 Run #1</t>
   </si>
@@ -61,6 +61,45 @@
   <si>
     <t>Matrix Add 1000x1000 Run #4</t>
   </si>
+  <si>
+    <t>Run#1</t>
+  </si>
+  <si>
+    <t>Run#2</t>
+  </si>
+  <si>
+    <t>Run#3</t>
+  </si>
+  <si>
+    <t>Run#4</t>
+  </si>
+  <si>
+    <t>Anderson Number of Threads</t>
+  </si>
+  <si>
+    <t>MCS Number of Threads</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1 Thread</t>
+  </si>
+  <si>
+    <t>2 Thread</t>
+  </si>
+  <si>
+    <t>3 Thread</t>
+  </si>
+  <si>
+    <t>4 Thread</t>
+  </si>
+  <si>
+    <t>5 Thread</t>
+  </si>
+  <si>
+    <t>6 Thread</t>
+  </si>
 </sst>
 </file>
 
@@ -95,8 +134,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,7 +191,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Monti Carlo Multithreading</a:t>
+              <a:t>MCS Threads 5-6</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -195,11 +237,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$18</c:f>
+              <c:f>Sheet1!$A$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pi Run #1</c:v>
+                  <c:v>5 Thread</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -217,67 +259,42 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$19:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sheet1!$B$44:$E$44</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Run#1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Run#2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>Run#3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>Run#4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$19:$B$26</c:f>
+              <c:f>Sheet1!$B$45:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>35514</c:v>
+                  <c:v>12874429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17599</c:v>
+                  <c:v>4573432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7412</c:v>
+                  <c:v>3243003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6253</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6278</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6240</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6216</c:v>
+                  <c:v>3543558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -289,11 +306,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$18</c:f>
+              <c:f>Sheet1!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pi Run #2</c:v>
+                  <c:v>6 Thread</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -311,313 +328,42 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$19:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sheet1!$B$44:$E$44</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Run#1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Run#2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>Run#3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>Run#4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$19:$C$26</c:f>
+              <c:f>Sheet1!$B$46:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>33614</c:v>
+                  <c:v>8592577</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13510</c:v>
+                  <c:v>9003234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9070</c:v>
+                  <c:v>8782311</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6279</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6206</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6254</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6394</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6407</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pi Run #3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$19:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$19:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>32754</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16705</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6885</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6238</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6350</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6324</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6336</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6312</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pi Run #4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$19:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$19:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>32804</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20460</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8062</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6214</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6141</c:v>
+                  <c:v>7254591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,11 +379,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="190007424"/>
-        <c:axId val="190010168"/>
+        <c:axId val="391821736"/>
+        <c:axId val="391822128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190007424"/>
+        <c:axId val="391821736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,7 +426,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190010168"/>
+        <c:crossAx val="391822128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -688,7 +434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190010168"/>
+        <c:axId val="391822128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -739,655 +485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190007424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>1000 x 1000 Matrix Multiply</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Matrix Add 1000x1000 Run #1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$G$19:$G$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$19:$H$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>20551</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11985</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6937</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6567</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6478</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6783</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6881</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4360</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Matrix Add 1000x1000 Run #2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$G$19:$G$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$19:$I$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>22126</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12275</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6874</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7293</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6496</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6516</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4626</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4425</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Matrix Add 1000x1000 Run #3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$G$19:$G$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$19:$J$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>20801</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12259</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6739</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6927</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6461</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6531</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4479</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4414</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$K$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Matrix Add 1000x1000 Run #4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$G$19:$G$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$19:$K$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>21785</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12609</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6968</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6566</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6693</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6607</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4468</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4375</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="438076312"/>
-        <c:axId val="438076704"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="438076312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="438076704"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="438076704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="438076312"/>
+        <c:crossAx val="391821736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1508,46 +606,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2064,540 +1122,24 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="11" name="Chart 10"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2607,36 +1149,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2908,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K26"/>
+  <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:K26"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2919,7 +1431,7 @@
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2944,8 +1456,20 @@
       <c r="I2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2973,8 +1497,23 @@
       <c r="I3">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>15</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3002,8 +1541,23 @@
       <c r="I4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3031,8 +1585,23 @@
       <c r="I5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3060,8 +1629,23 @@
       <c r="I6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -3086,8 +1670,23 @@
       <c r="I7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>16</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3115,8 +1714,23 @@
       <c r="I8">
         <v>4360</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3144,8 +1758,23 @@
       <c r="I9">
         <v>4425</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3173,8 +1802,23 @@
       <c r="I10">
         <v>4414</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3203,7 +1847,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1</v>
       </c>
@@ -3229,7 +1873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -3258,7 +1902,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -3287,7 +1931,7 @@
         <v>6407</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -3316,7 +1960,7 @@
         <v>6312</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3625,6 +2269,279 @@
       </c>
       <c r="K26">
         <v>4375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>172</v>
+      </c>
+      <c r="C29">
+        <v>234</v>
+      </c>
+      <c r="D29">
+        <v>202</v>
+      </c>
+      <c r="E29">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>227</v>
+      </c>
+      <c r="C30">
+        <v>257</v>
+      </c>
+      <c r="D30">
+        <v>219</v>
+      </c>
+      <c r="E30">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>375</v>
+      </c>
+      <c r="C31">
+        <v>309</v>
+      </c>
+      <c r="D31">
+        <v>297</v>
+      </c>
+      <c r="E31">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>449</v>
+      </c>
+      <c r="C32">
+        <v>288</v>
+      </c>
+      <c r="D32">
+        <v>235</v>
+      </c>
+      <c r="E32">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>5279707</v>
+      </c>
+      <c r="C35">
+        <v>7230452</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1740171</v>
+      </c>
+      <c r="E35">
+        <v>5341873</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36">
+        <v>9786167</v>
+      </c>
+      <c r="C36">
+        <v>9843934</v>
+      </c>
+      <c r="D36">
+        <v>9500452</v>
+      </c>
+      <c r="E36">
+        <v>8962309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>212</v>
+      </c>
+      <c r="C39">
+        <v>261</v>
+      </c>
+      <c r="D39">
+        <v>198</v>
+      </c>
+      <c r="E39">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>282</v>
+      </c>
+      <c r="C40">
+        <v>207</v>
+      </c>
+      <c r="D40">
+        <v>243</v>
+      </c>
+      <c r="E40">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>365</v>
+      </c>
+      <c r="C41">
+        <v>219</v>
+      </c>
+      <c r="D41">
+        <v>223</v>
+      </c>
+      <c r="E41">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>259</v>
+      </c>
+      <c r="C42">
+        <v>309</v>
+      </c>
+      <c r="D42">
+        <v>143</v>
+      </c>
+      <c r="E42">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>12874429</v>
+      </c>
+      <c r="C45">
+        <v>4573432</v>
+      </c>
+      <c r="D45">
+        <v>3243003</v>
+      </c>
+      <c r="E45">
+        <v>3543558</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>8592577</v>
+      </c>
+      <c r="C46">
+        <v>9003234</v>
+      </c>
+      <c r="D46">
+        <v>8782311</v>
+      </c>
+      <c r="E46">
+        <v>7254591</v>
       </c>
     </row>
   </sheetData>
